--- a/Emp Salary Module.xlsx
+++ b/Emp Salary Module.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a0131422db0c97f/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\TestAuto-main\TestAuto-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C0D4FF19-F4D5-4BEE-A18F-29D2DD09EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC37BF6-E0A4-4C7F-B9FF-1DD7D9F8B3EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE34F07-5ACE-4CE5-B077-51ED6FC04B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{4A16BB3E-1C71-4A90-B258-254DD335A80E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{4A16BB3E-1C71-4A90-B258-254DD335A80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Emp Allowance" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Department</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes by kashish for testing </t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,6 +395,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,14 +737,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -774,7 +778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -788,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -802,7 +806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
@@ -818,12 +822,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -834,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -842,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -850,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -865,23 +869,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1721CF-9C8A-4D65-8C04-7B47A37ED18E}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -904,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -923,7 +927,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -942,7 +946,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -961,7 +965,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -980,7 +984,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -999,7 +1003,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1018,7 +1022,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
@@ -1036,6 +1040,11 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,15 +1059,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1284,12 +1293,12 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1397,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Emp Salary Module.xlsx
+++ b/Emp Salary Module.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\TestAuto-main\TestAuto-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a0131422db0c97f/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE34F07-5ACE-4CE5-B077-51ED6FC04B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{C0D4FF19-F4D5-4BEE-A18F-29D2DD09EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC37BF6-E0A4-4C7F-B9FF-1DD7D9F8B3EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{4A16BB3E-1C71-4A90-B258-254DD335A80E}"/>
+    <workbookView xWindow="4320" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{4A16BB3E-1C71-4A90-B258-254DD335A80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Emp Allowance" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Department</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changes by kashish for testing </t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -395,7 +392,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -737,14 +733,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -778,7 +774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -792,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -806,7 +802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
@@ -822,12 +818,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -838,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -846,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -854,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -869,23 +865,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1721CF-9C8A-4D65-8C04-7B47A37ED18E}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -908,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -927,7 +923,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -946,7 +942,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -965,7 +961,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -984,7 +980,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -1003,7 +999,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1022,7 +1018,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
@@ -1040,11 +1036,6 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,15 +1050,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1087,7 +1078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -1108,7 +1099,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1120,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1150,7 +1141,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1171,7 +1162,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1192,7 +1183,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1213,7 +1204,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1234,7 +1225,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1255,7 +1246,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1293,12 +1284,12 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1369,7 +1360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1397,7 +1388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
